--- a/BidBattlesAllItems.xlsx
+++ b/BidBattlesAllItems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/544eb1111fb4475e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="782" documentId="8_{9B01D972-70EC-432B-9C02-7D3402B35161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ACE7FAE-7B4B-4D01-A780-98754958B9E7}"/>
+  <xr:revisionPtr revIDLastSave="864" documentId="8_{9B01D972-70EC-432B-9C02-7D3402B35161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D679E22-5171-4F0E-B4E1-2B5041AEE4D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{779B6F63-EB6C-4DA7-A01B-D38F6139F5C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{779B6F63-EB6C-4DA7-A01B-D38F6139F5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="643">
   <si>
     <t>Item</t>
   </si>
@@ -1562,9 +1562,6 @@
     <t>Silver Safe</t>
   </si>
   <si>
-    <t>v?</t>
-  </si>
-  <si>
     <t>Emerald Duck</t>
   </si>
   <si>
@@ -1772,15 +1769,9 @@
     <t>Queen Staff</t>
   </si>
   <si>
-    <t>Tesseract?</t>
-  </si>
-  <si>
     <t>Throne</t>
   </si>
   <si>
-    <t>Leaning Tower of Pisa?</t>
-  </si>
-  <si>
     <t>Sword Statue</t>
   </si>
   <si>
@@ -1953,6 +1944,33 @@
   </si>
   <si>
     <t>Ticket3,</t>
+  </si>
+  <si>
+    <t>Tesseract</t>
+  </si>
+  <si>
+    <t>Speed Boat</t>
+  </si>
+  <si>
+    <t>Trop 6. Gem 1.</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Brick Wallpaper</t>
+  </si>
+  <si>
+    <t>Leaning Tower Of Pisa</t>
+  </si>
+  <si>
+    <t>Borderless TV Screen 20x15</t>
+  </si>
+  <si>
+    <t>Hills7,</t>
+  </si>
+  <si>
+    <t>Ruby Ring</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2048,21 +2066,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,6 +2074,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2413,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1937F7-E4D7-4FEB-B572-CC9C8AD61A7D}">
   <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="E265" sqref="E265"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4888,8 +4900,12 @@
       <c r="D160" s="7">
         <v>18</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
+      <c r="E160" s="7">
+        <v>42</v>
+      </c>
+      <c r="F160" s="7">
+        <v>53</v>
+      </c>
       <c r="G160" s="7">
         <v>70</v>
       </c>
@@ -5253,8 +5269,12 @@
       <c r="E183" s="7">
         <v>32</v>
       </c>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
+      <c r="F183" s="7">
+        <v>39</v>
+      </c>
+      <c r="G183" s="7">
+        <v>52</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
@@ -5835,7 +5855,7 @@
         <v>30</v>
       </c>
       <c r="H211" t="s">
-        <v>506</v>
+        <v>423</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6683,6 +6703,9 @@
       </c>
       <c r="E262" s="9">
         <v>5</v>
+      </c>
+      <c r="F262" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -7082,7 +7105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2399AABC-FD0D-4E25-AE38-96B3E8E74D5D}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -9765,10 +9788,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F74375-2D66-4D63-A9D7-B279E3057FFF}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9802,7 +9825,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
         <v>426</v>
@@ -9817,23 +9840,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>426</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B4" t="s">
         <v>426</v>
@@ -9846,12 +9868,12 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
         <v>426</v>
@@ -9866,7 +9888,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
         <v>426</v>
@@ -9881,7 +9903,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B7" t="s">
         <v>426</v>
@@ -9889,7 +9911,9 @@
       <c r="C7" s="5">
         <v>5500</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>2750</v>
+      </c>
       <c r="E7" s="5">
         <v>6600</v>
       </c>
@@ -9898,7 +9922,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B8" t="s">
         <v>426</v>
@@ -9915,7 +9939,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
         <v>426</v>
@@ -9936,7 +9960,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
         <v>426</v>
@@ -9955,7 +9979,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s">
         <v>426</v>
@@ -9972,7 +9996,7 @@
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>426</v>
@@ -9980,7 +10004,9 @@
       <c r="C12" s="9">
         <v>5200</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>2600</v>
+      </c>
       <c r="E12" s="9">
         <v>6240</v>
       </c>
@@ -9989,7 +10015,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
         <v>426</v>
@@ -10010,7 +10036,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B14" t="s">
         <v>426</v>
@@ -10025,13 +10051,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="B15" t="s">
         <v>426</v>
       </c>
       <c r="C15" s="5">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -10039,216 +10065,216 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" t="s">
         <v>426</v>
       </c>
       <c r="C16" s="5">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>5760</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="5">
+        <v>4700</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="5">
         <v>4600</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>5520</v>
-      </c>
-      <c r="F17" s="5">
-        <v>6900</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4500</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
+        <v>5520</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6900</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>5400</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4400</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B20" t="s">
         <v>426</v>
       </c>
       <c r="C20" s="5">
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C21" s="5">
         <v>4250</v>
       </c>
-      <c r="D21" s="5">
-        <v>2125</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B22" t="s">
         <v>426</v>
       </c>
       <c r="C22" s="5">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="D22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4800</v>
-      </c>
+        <v>2125</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>608</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="B23" t="s">
         <v>426</v>
       </c>
       <c r="C23" s="5">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="D23" s="5">
-        <v>1950</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4800</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>605</v>
+      </c>
+      <c r="B24" t="s">
         <v>426</v>
       </c>
       <c r="C24" s="5">
         <v>3900</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>1950</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>587</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>583</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C25" s="5">
+        <v>3900</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="5">
         <v>3800</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <v>1900</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <v>4560</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
+      <c r="F26" s="5">
+        <v>5700</v>
+      </c>
+      <c r="G26" s="5">
         <v>7600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C26" s="9">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="9">
         <v>3700</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>1850</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>4440</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3600</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>4320</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5400</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>571</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>586</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>426</v>
@@ -10263,365 +10289,363 @@
       <c r="F28" s="5">
         <v>5400</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3600</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <v>4320</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5400</v>
+      </c>
+      <c r="G29" s="5">
         <v>7400</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B29" t="s">
-        <v>426</v>
-      </c>
-      <c r="C29" s="5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="5">
         <v>3300</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="B30" t="s">
-        <v>426</v>
-      </c>
-      <c r="C30" s="5">
-        <v>3100</v>
-      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <v>3720</v>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3100</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <v>3720</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2950</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1475</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2800</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>7600</v>
+      </c>
+      <c r="H33" t="s">
         <v>592</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C31" s="9">
-        <v>2950</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1475</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B32" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="15">
-        <v>2800</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>7600</v>
-      </c>
-      <c r="H32" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B33" t="s">
-        <v>426</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="9">
         <v>2500</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>1250</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>3000</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>3750</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B34" t="s">
-        <v>426</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="B35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="9">
         <v>2400</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
         <v>2880</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B35" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="5">
         <v>2200</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>1100</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>2640</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B36" t="s">
-        <v>426</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="5">
-        <v>2400</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B38" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C38" s="9">
         <v>1900</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>950</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>2280</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="B39" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="9">
         <v>1750</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="5">
         <v>875</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="E39" s="9">
+        <v>2100</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B39" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="B40" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" s="9">
         <v>1650</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>825</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>1980</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>2475</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B40" t="s">
-        <v>426</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" s="9">
         <v>1430</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>715</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>1716</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B41" t="s">
-        <v>426</v>
-      </c>
-      <c r="C41" s="5">
+      <c r="B42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="5">
         <v>1360</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>680</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>1632</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B42" t="s">
-        <v>426</v>
-      </c>
-      <c r="C42" s="9">
+      <c r="B43" t="s">
+        <v>426</v>
+      </c>
+      <c r="C43" s="9">
         <v>1250</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>625</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>1500</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>1875</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B43" t="s">
-        <v>426</v>
-      </c>
-      <c r="C43" s="9">
+      <c r="B44" t="s">
+        <v>426</v>
+      </c>
+      <c r="C44" s="9">
         <v>1200</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>600</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>1440</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B44" t="s">
-        <v>426</v>
-      </c>
-      <c r="C44" s="9">
-        <v>1150</v>
-      </c>
-      <c r="D44" s="9">
-        <v>575</v>
-      </c>
-      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B45" t="s">
+        <v>426</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1150</v>
+      </c>
+      <c r="D45" s="9">
+        <v>575</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C45" s="9">
-        <v>1100</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="9"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C46" s="9">
         <v>1100</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="9">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B47" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
         <v>1650</v>
       </c>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D47" s="9">
-        <v>500</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1200</v>
-      </c>
-      <c r="F47" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G47" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="B48" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C48" s="7">
         <v>1000</v>
       </c>
       <c r="D48" s="9">
@@ -10639,89 +10663,91 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="9">
+        <v>500</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G49" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C49" s="9">
+      <c r="B50" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="9">
         <v>990</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>495</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>1188</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C50" s="9">
-        <v>950</v>
-      </c>
-      <c r="D50" s="9">
-        <v>475</v>
-      </c>
-      <c r="E50" s="9">
-        <v>1140</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C51" s="9">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="D51" s="9">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E51" s="9">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="9">
+        <v>940</v>
+      </c>
+      <c r="D52" s="9">
+        <v>470</v>
+      </c>
+      <c r="E52" s="9">
+        <v>1128</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1410</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C52" s="9">
-        <v>900</v>
-      </c>
-      <c r="D52" s="9">
-        <v>450</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1080</v>
-      </c>
-      <c r="F52" s="9">
-        <v>1350</v>
-      </c>
-      <c r="G52" s="9">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C53" s="9">
@@ -10736,13 +10762,15 @@
       <c r="F53" s="9">
         <v>1350</v>
       </c>
-      <c r="G53" s="5"/>
+      <c r="G53" s="9">
+        <v>1800</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B54" t="s">
         <v>426</v>
       </c>
       <c r="C54" s="9">
@@ -10757,693 +10785,711 @@
       <c r="F54" s="9">
         <v>1350</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="5">
         <v>1800</v>
       </c>
-      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C55" s="9">
+        <v>900</v>
+      </c>
+      <c r="D55" s="9">
+        <v>450</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1080</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1350</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C55" s="9">
+      <c r="B56" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="9">
         <v>850</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>425</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>1020</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>1275</v>
       </c>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B56" t="s">
-        <v>426</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="B57" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="9">
         <v>807</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>404</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>969</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C57" s="9">
-        <v>800</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>960</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1200</v>
-      </c>
-      <c r="G57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C58" s="9">
-        <v>780</v>
-      </c>
-      <c r="D58" s="9">
-        <v>390</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>936</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+        <v>960</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1200</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1600</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C59" s="2">
-        <v>759</v>
+      <c r="C59" s="9">
+        <v>780</v>
       </c>
       <c r="D59" s="9">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E59" s="9">
-        <v>911</v>
-      </c>
-      <c r="F59" s="9">
-        <v>1139</v>
-      </c>
-      <c r="G59" s="9">
-        <v>1518</v>
-      </c>
-      <c r="H59" s="6"/>
+        <v>936</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="2">
+        <v>759</v>
+      </c>
+      <c r="D60" s="9">
+        <v>380</v>
+      </c>
+      <c r="E60" s="9">
+        <v>911</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1139</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1518</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C60" s="9">
-        <v>700</v>
-      </c>
-      <c r="D60" s="9">
-        <v>350</v>
-      </c>
-      <c r="E60" s="9">
-        <v>840</v>
-      </c>
-      <c r="F60" s="5">
-        <v>1050</v>
-      </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C61" s="9">
         <v>700</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="D61" s="9">
+        <v>350</v>
+      </c>
+      <c r="E61" s="9">
+        <v>840</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1050</v>
+      </c>
       <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C62" s="9">
-        <v>690</v>
+      <c r="C62" s="2">
+        <v>700</v>
       </c>
       <c r="D62" s="9">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E62" s="9">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="F62" s="9">
-        <v>1035</v>
-      </c>
-      <c r="G62" s="9">
-        <v>1380</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="G62" s="9"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C63" s="9">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="D63" s="9">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E63" s="9">
-        <v>780</v>
+        <v>828</v>
       </c>
       <c r="F63" s="9">
-        <v>975</v>
+        <v>1035</v>
       </c>
       <c r="G63" s="9">
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C64" s="9">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="D64" s="9">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E64" s="9">
-        <v>732</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+        <v>780</v>
+      </c>
+      <c r="F64" s="9">
+        <v>975</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="2">
-        <v>600</v>
+      <c r="C65" s="9">
+        <v>610</v>
       </c>
       <c r="D65" s="9">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E65" s="9">
-        <v>720</v>
-      </c>
-      <c r="F65" s="9">
-        <v>900</v>
-      </c>
-      <c r="G65" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H65" s="6"/>
+        <v>732</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C66" s="7">
+        <v>458</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" s="2">
         <v>600</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7">
+      <c r="D66" s="9">
+        <v>300</v>
+      </c>
+      <c r="E66" s="9">
         <v>720</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="9">
+        <v>900</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1200</v>
+      </c>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C67" s="9">
-        <v>595</v>
-      </c>
-      <c r="D67" s="9">
-        <v>298</v>
-      </c>
-      <c r="E67" s="9">
-        <v>714</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+        <v>459</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C67" s="7">
+        <v>600</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7">
+        <v>720</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C68" s="9">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D68" s="9">
-        <v>290</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9">
-        <v>870</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E68" s="9">
+        <v>714</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C69" s="9">
+        <v>580</v>
+      </c>
+      <c r="D69" s="9">
+        <v>290</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9">
+        <v>870</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C69" s="9">
+      <c r="B70" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C70" s="9">
         <v>550</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>275</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>660</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C70" s="9">
+      <c r="B71" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C71" s="9">
         <v>538</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>269</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>646</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>807</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>1076</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C71" s="9">
-        <v>520</v>
-      </c>
-      <c r="D71" s="9">
-        <v>260</v>
-      </c>
-      <c r="E71" s="9">
-        <v>624</v>
-      </c>
-      <c r="F71" s="9">
-        <v>780</v>
-      </c>
-      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B72" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C72" s="9">
-        <v>516</v>
-      </c>
-      <c r="D72" s="5">
-        <v>258</v>
-      </c>
-      <c r="E72" s="5">
-        <v>620</v>
-      </c>
-      <c r="F72" s="5">
-        <v>774</v>
-      </c>
-      <c r="G72" s="5">
-        <v>1032</v>
-      </c>
-      <c r="H72" s="8"/>
+        <v>520</v>
+      </c>
+      <c r="D72" s="9">
+        <v>260</v>
+      </c>
+      <c r="E72" s="9">
+        <v>624</v>
+      </c>
+      <c r="F72" s="9">
+        <v>780</v>
+      </c>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" t="s">
+        <v>426</v>
+      </c>
+      <c r="C73" s="9">
+        <v>516</v>
+      </c>
+      <c r="D73" s="5">
+        <v>258</v>
+      </c>
+      <c r="E73" s="5">
+        <v>620</v>
+      </c>
+      <c r="F73" s="5">
+        <v>774</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1032</v>
+      </c>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C73" s="9">
+      <c r="B74" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C74" s="9">
         <v>500</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>250</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>600</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>750</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C74" s="9">
+      <c r="B75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="9">
         <v>477</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>239</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>573</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>716</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>954</v>
       </c>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C75" s="9">
+      <c r="B76" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" s="9">
         <v>460</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9">
         <v>552</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>690</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>920</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C76" s="9">
-        <v>459</v>
-      </c>
-      <c r="D76" s="9">
-        <v>230</v>
-      </c>
-      <c r="E76" s="9">
-        <v>551</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C77" s="9">
-        <v>450</v>
-      </c>
-      <c r="D77" s="9"/>
+        <v>459</v>
+      </c>
+      <c r="D77" s="9">
+        <v>230</v>
+      </c>
       <c r="E77" s="9">
-        <v>540</v>
-      </c>
-      <c r="F77" s="9">
-        <v>675</v>
-      </c>
-      <c r="G77" s="7">
-        <v>900</v>
-      </c>
-      <c r="H77" s="6"/>
+        <v>551</v>
+      </c>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C78" s="9">
-        <v>440</v>
-      </c>
-      <c r="D78" s="9">
-        <v>220</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="F78" s="9">
-        <v>660</v>
-      </c>
-      <c r="G78" s="9"/>
+        <v>675</v>
+      </c>
+      <c r="G78" s="7">
+        <v>900</v>
+      </c>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C79" s="9">
-        <v>430</v>
-      </c>
-      <c r="D79" s="9"/>
+        <v>440</v>
+      </c>
+      <c r="D79" s="9">
+        <v>220</v>
+      </c>
       <c r="E79" s="9">
-        <v>516</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9">
-        <v>860</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="F79" s="9">
+        <v>660</v>
+      </c>
+      <c r="G79" s="9"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" s="9">
+        <v>430</v>
+      </c>
+      <c r="D80" s="9">
+        <v>215</v>
+      </c>
+      <c r="E80" s="9">
+        <v>516</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9">
+        <v>860</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C80" s="9">
+      <c r="B81" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" s="9">
         <v>429</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9">
         <v>515</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>644</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <v>858</v>
       </c>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" s="7">
+      <c r="B82" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="7">
         <v>421</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="7">
         <v>211</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>506</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>632</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G82" s="7">
         <v>842</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C82" s="9">
+      <c r="B83" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C83" s="9">
         <v>400</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>200</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>480</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>600</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C83" s="7">
+      <c r="B84" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84" s="7">
         <v>398</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>199</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>478</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>597</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G84" s="7">
         <v>796</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B84" t="s">
-        <v>426</v>
-      </c>
-      <c r="C84" s="5">
+      <c r="B85" t="s">
+        <v>426</v>
+      </c>
+      <c r="C85" s="5">
         <v>390</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D85" s="5">
         <v>195</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5">
         <v>468</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="5">
         <v>585</v>
       </c>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C85" s="9">
+      <c r="B86" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C86" s="9">
         <v>383</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>192</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>460</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>575</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>766</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C86" s="9">
-        <v>375</v>
-      </c>
-      <c r="D86" s="9">
-        <v>188</v>
-      </c>
-      <c r="E86" s="9">
-        <v>450</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>426</v>
@@ -11457,299 +11503,299 @@
       <c r="E87" s="9">
         <v>450</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" s="9">
+        <v>375</v>
+      </c>
+      <c r="D88" s="9">
+        <v>188</v>
+      </c>
+      <c r="E88" s="9">
+        <v>450</v>
+      </c>
+      <c r="F88" s="9">
         <v>563</v>
       </c>
-      <c r="G87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C88" s="9">
+      <c r="B89" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" s="9">
         <v>353</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9">
         <v>424</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C89" s="9">
+      <c r="B90" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C90" s="9">
         <v>340</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>170</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>408</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>510</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C90" s="9">
+      <c r="B91" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" s="9">
         <v>330</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>165</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>396</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B91" t="s">
-        <v>426</v>
-      </c>
-      <c r="C91" s="9">
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C92" s="9">
         <v>310</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>155</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>372</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>465</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G92" s="5">
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C92" s="9">
+      <c r="B93" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C93" s="9">
         <v>300</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <v>150</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>360</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>450</v>
       </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="G93" s="9"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C93" s="9">
+      <c r="B94" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="9">
         <v>273</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D94" s="9">
         <v>137</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E94" s="9">
         <v>328</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F94" s="9">
         <v>410</v>
       </c>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C94" s="9">
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="9">
         <v>267</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D95" s="9">
         <v>134</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C95" s="9">
+      <c r="B96" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C96" s="9">
         <v>260</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D96" s="9">
         <v>130</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9">
         <v>390</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G96" s="9">
         <v>520</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="B97" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="2">
         <v>246</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D97" s="9">
         <v>123</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E97" s="9">
         <v>296</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F97" s="9">
         <v>369</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G97" s="9">
         <v>492</v>
       </c>
-      <c r="H96" s="6"/>
-      <c r="I96" t="s">
+      <c r="H97" s="6"/>
+      <c r="I97" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B97" t="s">
-        <v>426</v>
-      </c>
-      <c r="C97" s="9">
+      <c r="B98" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" s="9">
         <v>240</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B98" t="s">
-        <v>426</v>
-      </c>
-      <c r="C98" s="9">
-        <v>238</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B99" t="s">
+        <v>426</v>
+      </c>
+      <c r="C99" s="9">
+        <v>238</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B99" t="s">
-        <v>426</v>
-      </c>
-      <c r="C99" s="9">
+      <c r="B100" t="s">
+        <v>426</v>
+      </c>
+      <c r="C100" s="9">
         <v>234</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D100" s="9">
         <v>117</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E100" s="9">
         <v>281</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F100" s="9">
         <v>351</v>
       </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C100" s="9">
+      <c r="B101" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C101" s="9">
         <v>230</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9">
         <v>276</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F101" s="9">
         <v>345</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G101" s="9">
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C101" s="9">
-        <v>200</v>
-      </c>
-      <c r="D101" s="9">
-        <v>100</v>
-      </c>
-      <c r="E101" s="9">
-        <v>240</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B102" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C102" s="9">
         <v>200</v>
       </c>
       <c r="D102" s="9">
@@ -11758,33 +11804,36 @@
       <c r="E102" s="9">
         <v>240</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C103" s="2">
+        <v>200</v>
+      </c>
+      <c r="D103" s="9">
+        <v>100</v>
+      </c>
+      <c r="E103" s="9">
+        <v>240</v>
+      </c>
+      <c r="F103" s="9">
         <v>300</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G103" s="9">
         <v>400</v>
       </c>
-      <c r="H102" s="6"/>
-    </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C103" s="2">
-        <v>199</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="6"/>
-    </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>426</v>
@@ -11793,16 +11842,14 @@
         <v>199</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9">
-        <v>239</v>
-      </c>
+      <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>426</v>
@@ -11818,9 +11865,9 @@
       <c r="G105" s="9"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>426</v>
@@ -11828,308 +11875,333 @@
       <c r="C106" s="2">
         <v>199</v>
       </c>
-      <c r="D106" s="9">
-        <v>100</v>
-      </c>
-      <c r="E106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9">
+        <v>239</v>
+      </c>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C107" s="2">
+        <v>199</v>
+      </c>
+      <c r="D107" s="9">
+        <v>100</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="B108" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="2">
         <v>185</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D108" s="9">
         <v>93</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E108" s="9">
         <v>222</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9">
+      <c r="F108" s="9">
+        <v>278</v>
+      </c>
+      <c r="G108" s="9">
         <v>370</v>
       </c>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C108" s="2">
+      <c r="B109" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C109" s="2">
         <v>174</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D109" s="9">
         <v>87</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E109" s="9">
         <v>209</v>
       </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C109" s="2">
-        <v>150</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>501</v>
+      </c>
+      <c r="B110" t="s">
+        <v>426</v>
+      </c>
+      <c r="C110" s="5">
+        <v>150</v>
+      </c>
+      <c r="D110" s="5">
+        <v>75</v>
+      </c>
+      <c r="E110" s="5">
+        <v>180</v>
+      </c>
+      <c r="F110" s="5">
+        <v>225</v>
+      </c>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="B111" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C111" s="2">
         <v>150</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9">
+      <c r="D111" s="9"/>
+      <c r="E111" s="9">
         <v>180</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F111" s="9">
         <v>225</v>
       </c>
-      <c r="G110" s="9">
+      <c r="G111" s="9">
         <v>300</v>
       </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B111" t="s">
-        <v>426</v>
-      </c>
-      <c r="C111" s="5">
+      <c r="B112" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" s="5">
         <v>120</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D112" s="5">
         <v>60</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E112" s="5">
         <v>144</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F112" s="5">
         <v>180</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G112" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>596</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C112" s="5">
-        <v>195</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5">
-        <v>234</v>
-      </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C113" s="5">
-        <v>700</v>
+        <v>195</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5">
-        <v>840</v>
+        <v>234</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C114" s="5">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5">
-        <v>240</v>
+        <v>840</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C115" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D115" s="5">
-        <v>500</v>
-      </c>
-      <c r="E115" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5">
+        <v>240</v>
+      </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C116" s="9">
-        <v>3</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="9">
-        <v>4</v>
-      </c>
+      <c r="C116" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D116" s="5">
+        <v>500</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C117" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C118" s="9">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="D118" s="5"/>
-      <c r="E118" s="9"/>
+      <c r="E118" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C119" s="9">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="D119" s="5"/>
-      <c r="E119" s="9">
-        <v>600</v>
-      </c>
+      <c r="E119" s="9"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>604</v>
-      </c>
-      <c r="B120" t="s">
-        <v>426</v>
-      </c>
-      <c r="C120" s="5">
-        <v>2000</v>
+        <v>600</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C120" s="9">
+        <v>500</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="E120" s="5">
-        <v>2400</v>
-      </c>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
+      <c r="E120" s="9">
+        <v>600</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B121" t="s">
         <v>426</v>
       </c>
       <c r="C121" s="5">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B122" t="s">
         <v>426</v>
       </c>
       <c r="C122" s="5">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5">
+        <v>600</v>
+      </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B123" t="s">
         <v>426</v>
       </c>
       <c r="C123" s="5">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="5">
-        <v>1200</v>
-      </c>
+      <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>604</v>
+      </c>
+      <c r="B124" t="s">
+        <v>426</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12138,18 +12210,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2920CAF1-426A-444B-9509-3AEDF217E499}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="16"/>
-    <col min="8" max="8" width="14.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12174,13 +12245,13 @@
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>612</v>
+      <c r="H1" s="4" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
         <v>426</v>
@@ -12195,13 +12266,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>426</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -12210,13 +12281,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B4" t="s">
         <v>426</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -12225,7 +12296,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
         <v>426</v>
@@ -12240,7 +12311,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
         <v>426</v>
@@ -12255,7 +12326,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B7" t="s">
         <v>426</v>
@@ -12272,7 +12343,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B8" t="s">
         <v>426</v>
@@ -12286,13 +12357,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="17">
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>576</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
         <v>426</v>
@@ -12303,7 +12374,9 @@
       <c r="D9" s="5">
         <v>2725</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>6540</v>
+      </c>
       <c r="F9" s="5">
         <v>8175</v>
       </c>
@@ -12311,7 +12384,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
         <v>426</v>
@@ -12330,7 +12403,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s">
         <v>426</v>
@@ -12347,7 +12420,7 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>426</v>
@@ -12355,17 +12428,19 @@
       <c r="C12" s="9">
         <v>5200</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>2600</v>
+      </c>
       <c r="E12" s="9">
         <v>6240</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
         <v>426</v>
@@ -12383,13 +12458,13 @@
       <c r="G13" s="5">
         <v>10200</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B14" t="s">
         <v>426</v>
@@ -12404,13 +12479,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="B15" t="s">
         <v>426</v>
       </c>
       <c r="C15" s="5">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -12418,80 +12493,80 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" t="s">
         <v>426</v>
       </c>
       <c r="C16" s="5">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="5">
+        <v>4700</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="5">
         <v>4600</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>5520</v>
-      </c>
-      <c r="F17" s="5">
-        <v>6900</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4500</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5">
+        <v>5520</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6900</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4500</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>5400</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C19" s="5">
-        <v>4400</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B20" t="s">
         <v>426</v>
       </c>
       <c r="C20" s="5">
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -12499,134 +12574,134 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C21" s="5">
         <v>4250</v>
       </c>
-      <c r="D21" s="5">
-        <v>2125</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B22" t="s">
         <v>426</v>
       </c>
       <c r="C22" s="5">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="D22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4800</v>
-      </c>
+        <v>2125</v>
+      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>608</v>
+      <c r="A23" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="B23" t="s">
         <v>426</v>
       </c>
       <c r="C23" s="5">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="D23" s="5">
-        <v>1950</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4800</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" t="s">
+        <v>605</v>
+      </c>
+      <c r="B24" t="s">
         <v>426</v>
       </c>
       <c r="C24" s="5">
         <v>3900</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>1950</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>587</v>
+      <c r="A25" s="9" t="s">
+        <v>583</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C25" s="5">
-        <v>3800</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1900</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4560</v>
-      </c>
+        <v>3900</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>7600</v>
-      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
+        <v>3800</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="5">
+        <v>4560</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="9">
         <v>3700</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <v>1850</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>4440</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3600</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
+      <c r="H27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>571</v>
+      <c r="A28" s="9" t="s">
+        <v>586</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>426</v>
@@ -12635,178 +12710,176 @@
         <v>3600</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="5">
+        <v>3600</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
         <v>4320</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>5400</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="5">
         <v>7400</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>606</v>
-      </c>
-      <c r="B29" t="s">
-        <v>426</v>
-      </c>
-      <c r="C29" s="5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="5">
         <v>3500</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B30" t="s">
-        <v>426</v>
-      </c>
-      <c r="C30" s="5">
-        <v>3300</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="17">
-        <v>1</v>
-      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B31" t="s">
         <v>426</v>
       </c>
       <c r="C31" s="5">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <v>3720</v>
-      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="9">
+        <v>588</v>
+      </c>
+      <c r="B32" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3100</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
+        <v>3720</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" s="9">
         <v>2950</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="5">
         <v>1475</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B33" t="s">
-        <v>426</v>
-      </c>
-      <c r="C33" s="15">
-        <v>2800</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <v>7600</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>595</v>
-      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>425</v>
+        <v>590</v>
       </c>
       <c r="B34" t="s">
         <v>426</v>
       </c>
-      <c r="C34" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1250</v>
-      </c>
-      <c r="E34" s="9">
-        <v>3000</v>
-      </c>
-      <c r="F34" s="9">
-        <v>3750</v>
-      </c>
-      <c r="G34" s="5"/>
+      <c r="C34" s="5">
+        <v>2800</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>7600</v>
+      </c>
+      <c r="H34" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B35" t="s">
         <v>426</v>
       </c>
       <c r="C35" s="9">
-        <v>2400</v>
-      </c>
-      <c r="D35" s="9"/>
+        <v>2500</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1250</v>
+      </c>
       <c r="E35" s="9">
-        <v>2880</v>
-      </c>
-      <c r="F35" s="9"/>
+        <v>3000</v>
+      </c>
+      <c r="F35" s="9">
+        <v>3750</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2400</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>2880</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B36" t="s">
-        <v>426</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B37" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="5">
         <v>2200</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
         <v>1100</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <v>2640</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>604</v>
-      </c>
-      <c r="B37" t="s">
-        <v>426</v>
-      </c>
-      <c r="C37" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>2400</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>429</v>
+      <c r="A38" t="s">
+        <v>601</v>
       </c>
       <c r="B38" t="s">
         <v>426</v>
@@ -12814,9 +12887,7 @@
       <c r="C38" s="5">
         <v>2000</v>
       </c>
-      <c r="D38" s="5">
-        <v>1000</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5">
         <v>2400</v>
       </c>
@@ -12825,253 +12896,249 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="9">
-        <v>1900</v>
-      </c>
-      <c r="D39" s="9">
-        <v>950</v>
+        <v>429</v>
+      </c>
+      <c r="B39" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1000</v>
       </c>
       <c r="E39" s="5">
-        <v>2280</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C40" s="9">
-        <v>1750</v>
-      </c>
-      <c r="D40" s="5">
-        <v>875</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>1900</v>
+      </c>
+      <c r="D40" s="9">
+        <v>950</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2280</v>
+      </c>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B41" t="s">
+        <v>431</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C41" s="9">
-        <v>1650</v>
-      </c>
-      <c r="D41" s="9">
-        <v>825</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1980</v>
-      </c>
-      <c r="F41" s="9">
-        <v>2475</v>
-      </c>
+        <v>1750</v>
+      </c>
+      <c r="D41" s="5">
+        <v>875</v>
+      </c>
+      <c r="E41" s="9"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
         <v>426</v>
       </c>
       <c r="C42" s="9">
-        <v>1430</v>
+        <v>1650</v>
       </c>
       <c r="D42" s="9">
-        <v>715</v>
+        <v>825</v>
       </c>
       <c r="E42" s="9">
-        <v>1716</v>
-      </c>
-      <c r="F42" s="9"/>
+        <v>1980</v>
+      </c>
+      <c r="F42" s="9">
+        <v>2475</v>
+      </c>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B43" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="5">
-        <v>1360</v>
-      </c>
-      <c r="D43" s="5">
-        <v>680</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1632</v>
-      </c>
-      <c r="F43" s="5"/>
+      <c r="C43" s="9">
+        <v>1430</v>
+      </c>
+      <c r="D43" s="9">
+        <v>715</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1716</v>
+      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
         <v>426</v>
       </c>
-      <c r="C44" s="9">
-        <v>1250</v>
-      </c>
-      <c r="D44" s="9">
-        <v>625</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F44" s="9">
-        <v>1875</v>
-      </c>
+      <c r="C44" s="5">
+        <v>1360</v>
+      </c>
+      <c r="D44" s="5">
+        <v>680</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1632</v>
+      </c>
+      <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s">
         <v>426</v>
       </c>
       <c r="C45" s="9">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="D45" s="9">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="E45" s="9">
-        <v>1440</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>1500</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1875</v>
+      </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s">
         <v>426</v>
       </c>
       <c r="C46" s="9">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="D46" s="9">
-        <v>575</v>
-      </c>
-      <c r="E46" s="9"/>
+        <v>600</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1440</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="17">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B47" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B47" t="s">
         <v>426</v>
       </c>
       <c r="C47" s="9">
-        <v>1100</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>1150</v>
+      </c>
+      <c r="D47" s="9">
+        <v>575</v>
+      </c>
       <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="5"/>
+      <c r="H47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B48" t="s">
+        <v>438</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C48" s="9">
         <v>1100</v>
       </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="9">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B49" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9">
         <v>1650</v>
       </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>599</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D49" s="5">
-        <v>500</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>607</v>
-      </c>
-      <c r="B50" t="s">
+        <v>596</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C50" s="5">
         <v>1000</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5">
-        <v>1200</v>
-      </c>
+      <c r="D50" s="5">
+        <v>500</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C51" s="7">
+      <c r="A51" t="s">
+        <v>604</v>
+      </c>
+      <c r="B51" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="5">
         <v>1000</v>
       </c>
-      <c r="D51" s="9">
-        <v>500</v>
-      </c>
-      <c r="E51" s="9">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5">
         <v>1200</v>
       </c>
-      <c r="F51" s="9">
-        <v>1500</v>
-      </c>
-      <c r="G51" s="9">
-        <v>2000</v>
-      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C52" s="2">
+        <v>440</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="7">
         <v>1000</v>
       </c>
       <c r="D52" s="9">
@@ -13089,89 +13156,89 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="9">
+        <v>500</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1200</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1500</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C53" s="9">
+      <c r="B54" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" s="9">
         <v>990</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>495</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>1188</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C54" s="9">
-        <v>950</v>
-      </c>
-      <c r="D54" s="9">
-        <v>475</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1140</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C55" s="9">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="D55" s="9">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E55" s="9">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="9">
+        <v>940</v>
+      </c>
+      <c r="D56" s="9">
+        <v>470</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1128</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C56" s="9">
-        <v>900</v>
-      </c>
-      <c r="D56" s="9">
-        <v>450</v>
-      </c>
-      <c r="E56" s="9">
-        <v>1080</v>
-      </c>
-      <c r="F56" s="9">
-        <v>1350</v>
-      </c>
-      <c r="G56" s="9">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C57" s="9">
@@ -13186,13 +13253,15 @@
       <c r="F57" s="9">
         <v>1350</v>
       </c>
-      <c r="G57" s="5"/>
+      <c r="G57" s="9">
+        <v>1800</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" t="s">
         <v>426</v>
       </c>
       <c r="C58" s="9">
@@ -13207,746 +13276,750 @@
       <c r="F58" s="9">
         <v>1350</v>
       </c>
-      <c r="G58" s="9">
-        <v>1800</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C59" s="9">
+        <v>900</v>
+      </c>
+      <c r="D59" s="9">
+        <v>450</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1080</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1350</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C59" s="9">
+      <c r="B60" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="9">
         <v>850</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>425</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>1020</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>1275</v>
       </c>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B60" t="s">
-        <v>426</v>
-      </c>
-      <c r="C60" s="9">
+      <c r="B61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" s="9">
         <v>807</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>404</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>969</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C61" s="9">
-        <v>800</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9">
-        <v>960</v>
-      </c>
-      <c r="F61" s="9">
-        <v>1200</v>
-      </c>
-      <c r="G61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C62" s="9">
-        <v>780</v>
-      </c>
-      <c r="D62" s="9">
-        <v>390</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="D62" s="9"/>
       <c r="E62" s="9">
-        <v>936</v>
-      </c>
-      <c r="F62" s="9"/>
+        <v>960</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1200</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C63" s="9">
+        <v>780</v>
+      </c>
+      <c r="D63" s="9">
+        <v>390</v>
+      </c>
+      <c r="E63" s="9">
+        <v>936</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="B64" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C64" s="2">
         <v>759</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>380</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>911</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>1139</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>1518</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>597</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C64" s="5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>594</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C65" s="5">
         <v>700</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
         <v>840</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C65" s="9">
-        <v>700</v>
-      </c>
-      <c r="D65" s="9">
-        <v>350</v>
-      </c>
-      <c r="E65" s="9">
-        <v>840</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1050</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="19"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C66" s="9">
         <v>700</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="D66" s="9">
+        <v>350</v>
+      </c>
+      <c r="E66" s="9">
+        <v>840</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1050</v>
+      </c>
       <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B67" t="s">
         <v>426</v>
       </c>
       <c r="C67" s="9">
-        <v>690</v>
-      </c>
-      <c r="D67" s="9">
-        <v>345</v>
-      </c>
-      <c r="E67" s="9">
-        <v>828</v>
-      </c>
-      <c r="F67" s="9">
-        <v>1035</v>
-      </c>
-      <c r="G67" s="9">
-        <v>1380</v>
-      </c>
-      <c r="H67" s="19"/>
+        <v>700</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="5"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C68" s="9">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="D68" s="9">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E68" s="9">
-        <v>780</v>
+        <v>828</v>
       </c>
       <c r="F68" s="9">
-        <v>975</v>
+        <v>1035</v>
       </c>
       <c r="G68" s="9">
-        <v>1300</v>
-      </c>
-      <c r="H68" s="19">
-        <v>1</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C69" s="9">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="D69" s="9">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E69" s="9">
-        <v>732</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+        <v>780</v>
+      </c>
+      <c r="F69" s="9">
+        <v>975</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1300</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C70" s="2">
-        <v>600</v>
+      <c r="C70" s="9">
+        <v>610</v>
       </c>
       <c r="D70" s="9">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E70" s="9">
-        <v>720</v>
-      </c>
-      <c r="F70" s="9">
-        <v>900</v>
-      </c>
-      <c r="G70" s="9">
-        <v>1200</v>
-      </c>
-      <c r="H70" s="19"/>
+        <v>732</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C71" s="7">
+        <v>458</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C71" s="2">
         <v>600</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7">
+      <c r="D71" s="9">
+        <v>300</v>
+      </c>
+      <c r="E71" s="9">
         <v>720</v>
       </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="19"/>
+      <c r="F71" s="9">
+        <v>900</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1200</v>
+      </c>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C72" s="9">
-        <v>595</v>
-      </c>
-      <c r="D72" s="9">
-        <v>298</v>
-      </c>
-      <c r="E72" s="9">
-        <v>714</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+        <v>459</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C72" s="7">
+        <v>600</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7">
+        <v>720</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C73" s="9">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="D73" s="9">
-        <v>290</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9">
-        <v>870</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E73" s="9">
+        <v>714</v>
+      </c>
+      <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C74" s="9">
+        <v>580</v>
+      </c>
+      <c r="D74" s="9">
+        <v>290</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9">
+        <v>870</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C74" s="9">
+      <c r="B75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="9">
         <v>550</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>275</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>660</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C75" s="9">
+      <c r="B76" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C76" s="9">
         <v>538</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>269</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>646</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>807</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>1076</v>
       </c>
-      <c r="H75" s="18"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C76" s="9">
-        <v>520</v>
-      </c>
-      <c r="D76" s="9">
-        <v>260</v>
-      </c>
-      <c r="E76" s="9">
-        <v>624</v>
-      </c>
-      <c r="F76" s="9">
-        <v>780</v>
-      </c>
-      <c r="G76" s="9"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C77" s="9">
+        <v>520</v>
+      </c>
+      <c r="D77" s="9">
+        <v>260</v>
+      </c>
+      <c r="E77" s="9">
+        <v>624</v>
+      </c>
+      <c r="F77" s="9">
+        <v>780</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B77" t="s">
-        <v>426</v>
-      </c>
-      <c r="C77" s="9">
+      <c r="B78" t="s">
+        <v>426</v>
+      </c>
+      <c r="C78" s="9">
         <v>516</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>258</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>620</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>774</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G78" s="5">
         <v>1032</v>
       </c>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>603</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C78" s="9">
-        <v>500</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="9">
-        <v>600</v>
-      </c>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>605</v>
-      </c>
-      <c r="B79" t="s">
-        <v>426</v>
-      </c>
-      <c r="C79" s="5">
+        <v>600</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C79" s="9">
         <v>500</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="5">
+      <c r="E79" s="9">
         <v>600</v>
       </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" t="s">
+        <v>602</v>
+      </c>
+      <c r="B80" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" s="5">
+        <v>500</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5">
+        <v>600</v>
+      </c>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C80" s="9">
+      <c r="B81" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" s="9">
         <v>500</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>250</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>600</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>750</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" s="9">
-        <v>477</v>
-      </c>
-      <c r="D81" s="9">
-        <v>239</v>
-      </c>
-      <c r="E81" s="9">
-        <v>573</v>
-      </c>
-      <c r="F81" s="9">
-        <v>716</v>
-      </c>
-      <c r="G81" s="9">
-        <v>954</v>
-      </c>
-      <c r="H81" s="19"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="9">
+        <v>477</v>
+      </c>
+      <c r="D82" s="9">
+        <v>239</v>
+      </c>
+      <c r="E82" s="9">
+        <v>573</v>
+      </c>
+      <c r="F82" s="9">
+        <v>716</v>
+      </c>
+      <c r="G82" s="9">
+        <v>954</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C82" s="9">
+      <c r="B83" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C83" s="9">
         <v>460</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9">
         <v>552</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>690</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>920</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C83" s="9">
-        <v>459</v>
-      </c>
-      <c r="D83" s="9">
-        <v>230</v>
-      </c>
-      <c r="E83" s="9">
-        <v>551</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C84" s="9">
-        <v>450</v>
-      </c>
-      <c r="D84" s="9"/>
+        <v>459</v>
+      </c>
+      <c r="D84" s="9">
+        <v>230</v>
+      </c>
       <c r="E84" s="9">
-        <v>540</v>
-      </c>
-      <c r="F84" s="9">
-        <v>675</v>
-      </c>
-      <c r="G84" s="7">
-        <v>900</v>
-      </c>
-      <c r="H84" s="19"/>
+        <v>551</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C85" s="9">
-        <v>440</v>
-      </c>
-      <c r="D85" s="9">
-        <v>220</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="F85" s="9">
-        <v>660</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="19">
-        <v>1</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="G85" s="7">
+        <v>900</v>
+      </c>
+      <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C86" s="9">
-        <v>430</v>
-      </c>
-      <c r="D86" s="9"/>
+        <v>440</v>
+      </c>
+      <c r="D86" s="9">
+        <v>220</v>
+      </c>
       <c r="E86" s="9">
-        <v>516</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9">
-        <v>860</v>
-      </c>
-      <c r="H86" s="19"/>
+        <v>528</v>
+      </c>
+      <c r="F86" s="9">
+        <v>660</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C87" s="9">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>515</v>
-      </c>
-      <c r="F87" s="9">
-        <v>644</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="9">
-        <v>858</v>
-      </c>
-      <c r="H87" s="19"/>
+        <v>860</v>
+      </c>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C88" s="7">
-        <v>421</v>
-      </c>
-      <c r="D88" s="7">
-        <v>211</v>
-      </c>
-      <c r="E88" s="7">
-        <v>506</v>
-      </c>
-      <c r="F88" s="7">
-        <v>632</v>
-      </c>
-      <c r="G88" s="7">
-        <v>842</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" s="9">
+        <v>429</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9">
+        <v>515</v>
+      </c>
+      <c r="F88" s="9">
+        <v>644</v>
+      </c>
+      <c r="G88" s="9">
+        <v>858</v>
+      </c>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C89" s="9">
-        <v>400</v>
-      </c>
-      <c r="D89" s="9">
-        <v>200</v>
-      </c>
-      <c r="E89" s="9">
-        <v>480</v>
-      </c>
-      <c r="F89" s="9">
-        <v>600</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="19"/>
+        <v>475</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" s="7">
+        <v>421</v>
+      </c>
+      <c r="D89" s="7">
+        <v>211</v>
+      </c>
+      <c r="E89" s="7">
+        <v>506</v>
+      </c>
+      <c r="F89" s="7">
+        <v>632</v>
+      </c>
+      <c r="G89" s="7">
+        <v>842</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C90" s="9">
+        <v>400</v>
+      </c>
+      <c r="D90" s="9">
+        <v>200</v>
+      </c>
+      <c r="E90" s="9">
+        <v>480</v>
+      </c>
+      <c r="F90" s="9">
+        <v>600</v>
+      </c>
+      <c r="G90" s="9"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C90" s="7">
+      <c r="B91" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C91" s="7">
         <v>398</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D91" s="7">
         <v>199</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="7">
         <v>478</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F91" s="7">
         <v>597</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G91" s="7">
         <v>796</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B91" t="s">
-        <v>426</v>
-      </c>
-      <c r="C91" s="5">
+      <c r="B92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C92" s="5">
         <v>390</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D92" s="5">
         <v>195</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E92" s="5">
         <v>468</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F92" s="5">
         <v>585</v>
       </c>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C92" s="9">
-        <v>383</v>
-      </c>
-      <c r="D92" s="9">
-        <v>192</v>
-      </c>
-      <c r="E92" s="9">
-        <v>460</v>
-      </c>
-      <c r="F92" s="9">
-        <v>575</v>
-      </c>
-      <c r="G92" s="9">
-        <v>766</v>
-      </c>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C93" s="9">
-        <v>375</v>
-      </c>
-      <c r="D93" s="9"/>
+        <v>383</v>
+      </c>
+      <c r="D93" s="9">
+        <v>192</v>
+      </c>
       <c r="E93" s="9">
-        <v>450</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+        <v>460</v>
+      </c>
+      <c r="F93" s="9">
+        <v>575</v>
+      </c>
+      <c r="G93" s="9">
+        <v>766</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>566</v>
+        <v>480</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>426</v>
@@ -13954,241 +14027,243 @@
       <c r="C94" s="9">
         <v>375</v>
       </c>
-      <c r="D94" s="9">
-        <v>188</v>
-      </c>
+      <c r="D94" s="9"/>
       <c r="E94" s="9">
         <v>450</v>
       </c>
-      <c r="F94" s="9">
-        <v>563</v>
-      </c>
-      <c r="G94" s="5"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C95" s="9">
+        <v>375</v>
+      </c>
+      <c r="D95" s="9">
+        <v>188</v>
+      </c>
+      <c r="E95" s="9">
+        <v>450</v>
+      </c>
+      <c r="F95" s="9">
+        <v>563</v>
+      </c>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C95" s="9">
+      <c r="B96" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C96" s="9">
         <v>353</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9">
         <v>424</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>602</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C96" s="9">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>599</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C97" s="9">
         <v>350</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="D97" s="5"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C97" s="9">
+      <c r="B98" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C98" s="9">
         <v>340</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D98" s="9">
         <v>170</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E98" s="9">
         <v>408</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F98" s="9">
         <v>510</v>
       </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="19"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C98" s="9">
+      <c r="B99" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C99" s="9">
         <v>330</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D99" s="9">
         <v>165</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E99" s="9">
         <v>396</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="18">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B99" t="s">
-        <v>426</v>
-      </c>
-      <c r="C99" s="9">
+      <c r="B100" t="s">
+        <v>426</v>
+      </c>
+      <c r="C100" s="9">
         <v>310</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D100" s="9">
         <v>155</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E100" s="9">
         <v>372</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F100" s="9">
         <v>465</v>
       </c>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C100" s="9">
-        <v>300</v>
-      </c>
-      <c r="D100" s="9">
-        <v>150</v>
-      </c>
-      <c r="E100" s="9">
-        <v>360</v>
-      </c>
-      <c r="F100" s="9">
-        <v>450</v>
-      </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="19"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C101" s="9">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="D101" s="9">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E101" s="9">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="F101" s="9">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="G101" s="9"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>565</v>
+        <v>486</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C102" s="9">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D102" s="9">
-        <v>134</v>
-      </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="E102" s="9">
+        <v>328</v>
+      </c>
+      <c r="F102" s="9">
+        <v>410</v>
+      </c>
       <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>487</v>
+        <v>564</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C103" s="9">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D103" s="9">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="9">
-        <v>390</v>
-      </c>
-      <c r="G103" s="9">
-        <v>520</v>
-      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C104" s="9">
+        <v>260</v>
+      </c>
+      <c r="D104" s="9">
+        <v>130</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9">
+        <v>390</v>
+      </c>
+      <c r="G104" s="9">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="B105" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" s="2">
         <v>246</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D105" s="9">
         <v>123</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E105" s="9">
         <v>296</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F105" s="9">
         <v>369</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G105" s="9">
         <v>492</v>
       </c>
-      <c r="H104" s="19"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B105" t="s">
-        <v>426</v>
-      </c>
-      <c r="C105" s="9">
-        <v>240</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B106" t="s">
         <v>426</v>
       </c>
       <c r="C106" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -14197,90 +14272,86 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B107" t="s">
+        <v>426</v>
+      </c>
+      <c r="C107" s="9">
+        <v>238</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B107" t="s">
-        <v>426</v>
-      </c>
-      <c r="C107" s="9">
+      <c r="B108" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="9">
         <v>234</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D108" s="9">
         <v>117</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E108" s="9">
         <v>281</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F108" s="9">
         <v>351</v>
       </c>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C108" s="9">
+      <c r="B109" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C109" s="9">
         <v>230</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9">
+      <c r="D109" s="9"/>
+      <c r="E109" s="9">
         <v>276</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F109" s="9">
         <v>345</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G109" s="9">
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>598</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C109" s="5">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>595</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C110" s="5">
         <v>200</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5">
+      <c r="D110" s="5"/>
+      <c r="E110" s="5">
         <v>240</v>
       </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C110" s="9">
-        <v>200</v>
-      </c>
-      <c r="D110" s="9">
-        <v>100</v>
-      </c>
-      <c r="E110" s="9">
-        <v>240</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C111" s="2">
+        <v>493</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C111" s="9">
         <v>200</v>
       </c>
       <c r="D111" s="9">
@@ -14289,33 +14360,36 @@
       <c r="E111" s="9">
         <v>240</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C112" s="2">
+        <v>200</v>
+      </c>
+      <c r="D112" s="9">
+        <v>100</v>
+      </c>
+      <c r="E112" s="9">
+        <v>240</v>
+      </c>
+      <c r="F112" s="9">
         <v>300</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G112" s="9">
         <v>400</v>
       </c>
-      <c r="H111" s="19"/>
-    </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C112" s="2">
-        <v>199</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="19"/>
+      <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>426</v>
@@ -14324,16 +14398,14 @@
         <v>199</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9">
-        <v>239</v>
-      </c>
+      <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="19"/>
+      <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>426</v>
@@ -14347,11 +14419,11 @@
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="19"/>
+      <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>426</v>
@@ -14359,92 +14431,94 @@
       <c r="C115" s="2">
         <v>199</v>
       </c>
-      <c r="D115" s="9">
-        <v>100</v>
-      </c>
-      <c r="E115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
+        <v>239</v>
+      </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="19"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>596</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C116" s="5">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C116" s="2">
+        <v>199</v>
+      </c>
+      <c r="D116" s="9">
+        <v>100</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>593</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C117" s="5">
         <v>195</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5">
+      <c r="D117" s="5"/>
+      <c r="E117" s="5">
         <v>234</v>
       </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C117" s="2">
-        <v>185</v>
-      </c>
-      <c r="D117" s="9">
-        <v>93</v>
-      </c>
-      <c r="E117" s="9">
-        <v>222</v>
-      </c>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9">
-        <v>370</v>
-      </c>
-      <c r="H117" s="19"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>426</v>
       </c>
       <c r="C118" s="2">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D118" s="9">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E118" s="9">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="19"/>
+      <c r="G118" s="9">
+        <v>370</v>
+      </c>
+      <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>426</v>
       </c>
       <c r="C119" s="2">
-        <v>150</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+        <v>174</v>
+      </c>
+      <c r="D119" s="9">
+        <v>87</v>
+      </c>
+      <c r="E119" s="9">
+        <v>209</v>
+      </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="19"/>
+      <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>426</v>
@@ -14453,73 +14527,89 @@
         <v>150</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9">
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C121" s="2">
+        <v>150</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9">
         <v>180</v>
       </c>
-      <c r="F120" s="9">
+      <c r="F121" s="9">
         <v>225</v>
       </c>
-      <c r="G120" s="9">
+      <c r="G121" s="9">
         <v>300</v>
       </c>
-      <c r="H120" s="19"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B121" t="s">
-        <v>426</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="B122" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="5">
         <v>120</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D122" s="5">
         <v>60</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E122" s="5">
         <v>144</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F122" s="5">
         <v>180</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G122" s="5">
         <v>240</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>601</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C122" s="9">
-        <v>5</v>
-      </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="9">
-        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C123" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>597</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C124" s="9">
+        <v>3</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H123">
-    <sortCondition descending="1" ref="C1:C123"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H124">
+    <sortCondition descending="1" ref="C1:C124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14527,10 +14617,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D6F400-DF0F-40BB-AD1C-2E4C27891AF6}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14539,7 +14629,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="14.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="16" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14565,955 +14655,1038 @@
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="B3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="9">
-        <v>12500</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
-        <v>15000</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="I3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>508</v>
+      <c r="C3" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="B4" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="5">
-        <v>2600</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3120</v>
+      <c r="C4" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="I4" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C5" s="5">
-        <v>2500</v>
-      </c>
+        <v>4300</v>
+      </c>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>3500</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="B7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3500</v>
-      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C8" s="5">
-        <v>5500</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1</v>
-      </c>
+        <v>4600</v>
+      </c>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>538</v>
+      <c r="A9" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="B9" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="5">
-        <v>4600</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2300</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1</v>
+      <c r="C9" s="9">
+        <v>12500</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="I9" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
         <v>420</v>
       </c>
       <c r="C10" s="5">
-        <v>5250</v>
-      </c>
-      <c r="H10" s="23">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>552</v>
+        <v>2600</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3120</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" t="s">
         <v>420</v>
       </c>
       <c r="C11" s="5">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="5">
-        <v>12000</v>
-      </c>
-      <c r="H11" s="23">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>552</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>548</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" t="s">
         <v>420</v>
       </c>
-      <c r="C12" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I12" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>543</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C12" s="9">
+        <v>3500</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="5">
-        <v>3050</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1525</v>
-      </c>
-      <c r="I13" t="s">
-        <v>553</v>
-      </c>
+      <c r="C13" s="9">
+        <v>3500</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>549</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" t="s">
         <v>420</v>
       </c>
       <c r="C14" s="5">
-        <v>5200</v>
-      </c>
-      <c r="I14" t="s">
-        <v>613</v>
+        <v>5500</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
         <v>420</v>
       </c>
       <c r="C15" s="5">
-        <v>11300</v>
-      </c>
-      <c r="I15" t="s">
-        <v>553</v>
+        <v>4600</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2300</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5250</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>551</v>
       </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C16" s="5">
-        <v>2700</v>
-      </c>
-      <c r="I16" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C17" s="2">
-        <v>800</v>
-      </c>
-      <c r="D17" s="9">
-        <v>400</v>
-      </c>
-      <c r="E17" s="9">
-        <v>960</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1600</v>
-      </c>
-      <c r="H17" s="24"/>
+      <c r="C17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12000</v>
+      </c>
+      <c r="H17" s="16">
+        <v>2</v>
+      </c>
       <c r="I17" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>555</v>
+      <c r="A18" t="s">
+        <v>547</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C18" s="5">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="I18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C19" s="5">
-        <v>5500</v>
+        <v>3050</v>
       </c>
       <c r="D19" s="5">
-        <v>2750</v>
+        <v>1525</v>
       </c>
       <c r="I19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>557</v>
+      <c r="A20" t="s">
+        <v>548</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C20" s="5">
-        <v>20000</v>
+        <v>5200</v>
       </c>
       <c r="I20" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C21" s="5">
-        <v>12500</v>
-      </c>
-      <c r="E21" s="5">
-        <v>15000</v>
+        <v>11300</v>
       </c>
       <c r="I21" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>546</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C22" s="5">
-        <v>9500</v>
+        <v>2700</v>
       </c>
       <c r="I22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="E23" s="5">
-        <v>22800</v>
-      </c>
+      <c r="C23" s="2">
+        <v>800</v>
+      </c>
+      <c r="D23" s="9">
+        <v>400</v>
+      </c>
+      <c r="E23" s="9">
+        <v>960</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1200</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1600</v>
+      </c>
+      <c r="H23" s="17"/>
       <c r="I23" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C24" s="5">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="I24" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C25" s="5">
-        <v>12000</v>
+        <v>5500</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2750</v>
       </c>
       <c r="I25" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>540</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C26" s="5">
-        <v>3200</v>
+        <v>20000</v>
       </c>
       <c r="I26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>563</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F27" s="5">
-        <v>20250</v>
+      <c r="C27" s="5">
+        <v>12500</v>
+      </c>
+      <c r="E27" s="5">
+        <v>15000</v>
       </c>
       <c r="I27" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C28" s="9">
-        <v>5000</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>547</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C28" s="5">
+        <v>9500</v>
+      </c>
+      <c r="I28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
-        <v>1850</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C29" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E29" s="5">
+        <v>22800</v>
+      </c>
+      <c r="I29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C30" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>3000</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5">
+        <v>8500</v>
+      </c>
+      <c r="I30" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="B31" t="s">
         <v>420</v>
       </c>
-      <c r="C31" s="9">
-        <v>2460</v>
-      </c>
-      <c r="D31" s="9">
-        <v>1230</v>
-      </c>
-      <c r="E31" s="9">
-        <v>2952</v>
-      </c>
-      <c r="F31" s="9">
-        <v>3690</v>
-      </c>
-      <c r="H31" s="25">
-        <v>1</v>
+      <c r="C31" s="5">
+        <v>12000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>514</v>
+      <c r="A32" t="s">
+        <v>539</v>
       </c>
       <c r="B32" t="s">
         <v>420</v>
       </c>
-      <c r="C32" s="9">
-        <v>2400</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C32" s="5">
+        <v>3200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C33" s="5">
-        <v>2300</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <v>20250</v>
+      </c>
+      <c r="I33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="B34" t="s">
         <v>420</v>
       </c>
       <c r="C34" s="9">
-        <v>2100</v>
+        <v>5000</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>2520</v>
-      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>546</v>
+      </c>
+      <c r="B35" t="s">
         <v>420</v>
       </c>
-      <c r="C35" s="5">
-        <v>2050</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1525</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2460</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4100</v>
-      </c>
+      <c r="C35" s="9">
+        <v>3700</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1850</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="B36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C36" s="9">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
-        <v>2400</v>
-      </c>
-      <c r="F36" s="9"/>
+        <v>3000</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3750</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B37" t="s">
         <v>420</v>
       </c>
       <c r="C37" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D37" s="9"/>
+        <v>2460</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1230</v>
+      </c>
       <c r="E37" s="9">
-        <v>2400</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="5">
-        <v>4000</v>
+        <v>2952</v>
+      </c>
+      <c r="F37" s="9">
+        <v>3690</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B38" t="s">
         <v>420</v>
       </c>
       <c r="C38" s="9">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9">
-        <v>2850</v>
-      </c>
-      <c r="G38" s="5">
-        <v>3800</v>
-      </c>
-      <c r="H38" s="25">
-        <v>1</v>
-      </c>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B39" t="s">
         <v>420</v>
       </c>
-      <c r="C39" s="9">
-        <v>1600</v>
-      </c>
-      <c r="D39" s="9">
-        <v>800</v>
-      </c>
-      <c r="E39" s="9">
-        <v>1920</v>
-      </c>
-      <c r="F39" s="9"/>
+      <c r="C39" s="5">
+        <v>2300</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2760</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="B40" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B40" t="s">
         <v>420</v>
       </c>
       <c r="C40" s="9">
-        <v>1400</v>
-      </c>
-      <c r="D40" s="9">
-        <v>700</v>
-      </c>
-      <c r="E40" s="9"/>
+        <v>2100</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
+        <v>2520</v>
+      </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C41" s="9">
-        <v>1250</v>
-      </c>
-      <c r="D41" s="9">
-        <v>625</v>
-      </c>
-      <c r="E41" s="9">
-        <v>1500</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1875</v>
-      </c>
-      <c r="H41" s="25">
-        <v>1</v>
+      <c r="C41" s="5">
+        <v>2050</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1525</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2460</v>
+      </c>
+      <c r="G41" s="5">
+        <v>4100</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B42" t="s">
         <v>420</v>
       </c>
       <c r="C42" s="9">
-        <v>1100</v>
-      </c>
-      <c r="D42" s="9">
-        <v>550</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="9">
-        <v>1320</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B43" t="s">
         <v>420</v>
       </c>
       <c r="C43" s="9">
-        <v>1020</v>
-      </c>
-      <c r="D43" s="9">
-        <v>510</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>1224</v>
+        <v>2400</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="5">
-        <v>2040</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44" t="s">
         <v>420</v>
       </c>
       <c r="C44" s="9">
-        <v>999</v>
-      </c>
-      <c r="D44" s="9">
-        <v>500</v>
-      </c>
-      <c r="E44" s="9">
-        <v>1199</v>
-      </c>
+        <v>1900</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="9">
-        <v>1499</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="I44" s="6"/>
+        <v>2850</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3800</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B45" t="s">
         <v>420</v>
       </c>
-      <c r="C45" s="2">
-        <v>950</v>
+      <c r="C45" s="9">
+        <v>1600</v>
       </c>
       <c r="D45" s="9">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="E45" s="9">
-        <v>1140</v>
-      </c>
-      <c r="F45" s="9">
-        <v>1425</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="25">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>1920</v>
+      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>528</v>
+      <c r="A46" s="3" t="s">
+        <v>521</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C46" s="9">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="D46" s="9">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="E46" s="9">
-        <v>1080</v>
+        <v>1680</v>
       </c>
       <c r="F46" s="9">
-        <v>1350</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1800</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B47" t="s">
         <v>420</v>
       </c>
       <c r="C47" s="9">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="D47" s="9">
-        <v>350</v>
+        <v>625</v>
       </c>
       <c r="E47" s="9">
-        <v>840</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="9">
-        <v>1150</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1400</v>
-      </c>
-      <c r="I47" s="6"/>
+        <v>1875</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B48" t="s">
         <v>420</v>
       </c>
-      <c r="C48" s="2">
-        <v>680</v>
+      <c r="C48" s="9">
+        <v>1100</v>
       </c>
       <c r="D48" s="9">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="E48" s="9">
-        <v>816</v>
-      </c>
-      <c r="F48" s="9">
+        <v>1320</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B49" t="s">
+        <v>420</v>
+      </c>
+      <c r="C49" s="9">
         <v>1020</v>
       </c>
-      <c r="G48" s="9">
-        <v>1360</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C49" s="9">
-        <v>560</v>
-      </c>
       <c r="D49" s="9">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="E49" s="9">
-        <v>672</v>
-      </c>
-      <c r="F49" s="9">
-        <v>840</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1120</v>
-      </c>
-      <c r="I49" s="6"/>
+        <v>1224</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="5">
+        <v>2040</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C50" s="9">
-        <v>560</v>
+        <v>999</v>
       </c>
       <c r="D50" s="9">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="E50" s="9">
-        <v>672</v>
+        <v>1199</v>
       </c>
       <c r="F50" s="9">
-        <v>840</v>
+        <v>1499</v>
       </c>
       <c r="G50" s="9"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B51" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="7">
-        <v>510</v>
-      </c>
-      <c r="D51" s="7">
-        <v>255</v>
-      </c>
-      <c r="E51" s="7">
-        <v>612</v>
-      </c>
-      <c r="F51" s="7">
-        <v>765</v>
-      </c>
-      <c r="G51" s="7">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>950</v>
+      </c>
+      <c r="D51" s="9">
+        <v>475</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1140</v>
+      </c>
+      <c r="F51" s="9">
+        <v>1425</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C52" s="2">
-        <v>500</v>
+      <c r="C52" s="9">
+        <v>900</v>
       </c>
       <c r="D52" s="9">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="E52" s="9">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="F52" s="9">
-        <v>750</v>
+        <v>1350</v>
       </c>
       <c r="G52" s="9">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="6"/>
+        <v>1800</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C53" s="9">
+        <v>700</v>
+      </c>
+      <c r="D53" s="9">
+        <v>350</v>
+      </c>
+      <c r="E53" s="9">
+        <v>840</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1150</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1400</v>
+      </c>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" s="2">
+        <v>680</v>
+      </c>
+      <c r="D54" s="9">
+        <v>340</v>
+      </c>
+      <c r="E54" s="9">
+        <v>816</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1020</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1360</v>
+      </c>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C55" s="9">
+        <v>560</v>
+      </c>
+      <c r="D55" s="9">
+        <v>280</v>
+      </c>
+      <c r="E55" s="9">
+        <v>672</v>
+      </c>
+      <c r="F55" s="9">
+        <v>840</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1120</v>
+      </c>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C56" s="9">
+        <v>560</v>
+      </c>
+      <c r="D56" s="9">
+        <v>280</v>
+      </c>
+      <c r="E56" s="9">
+        <v>672</v>
+      </c>
+      <c r="F56" s="9">
+        <v>840</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1120</v>
+      </c>
+      <c r="I56" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" s="7">
+        <v>510</v>
+      </c>
+      <c r="D57" s="7">
+        <v>255</v>
+      </c>
+      <c r="E57" s="7">
+        <v>612</v>
+      </c>
+      <c r="F57" s="7">
+        <v>765</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C58" s="2">
         <v>500</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D58" s="9">
         <v>250</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E58" s="9">
         <v>600</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F58" s="9">
         <v>750</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G58" s="9">
         <v>1000</v>
       </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9">
+      <c r="C59" s="9">
+        <v>500</v>
+      </c>
+      <c r="D59" s="9">
+        <v>250</v>
+      </c>
+      <c r="E59" s="9">
+        <v>600</v>
+      </c>
+      <c r="F59" s="9">
+        <v>750</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B60" t="s">
+        <v>420</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9">
         <v>975</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E60" s="9">
         <v>2340</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F60" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15525,13 +15698,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF758E3E-0CB1-43E0-B1F6-0218D9EC9829}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
@@ -15560,19 +15733,19 @@
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>615</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>620</v>
+      <c r="A2" t="s">
+        <v>617</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C2" s="9">
         <v>650</v>
@@ -15591,11 +15764,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>622</v>
+      <c r="A3" t="s">
+        <v>619</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C3" s="9">
         <v>900</v>
@@ -15614,11 +15787,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>623</v>
+      <c r="A4" t="s">
+        <v>620</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C4" s="9">
         <v>777</v>
@@ -15638,10 +15811,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C5" s="9">
         <v>2300</v>
@@ -15653,10 +15826,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C6" s="9">
         <v>2200</v>
@@ -15670,10 +15843,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C7" s="9">
         <v>2100</v>
@@ -15689,10 +15862,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C8" s="9">
         <v>1600</v>
@@ -15704,10 +15877,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C9" s="9">
         <v>1200</v>
@@ -15721,10 +15894,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C10" s="9">
         <v>2500</v>
@@ -15736,10 +15909,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B11" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C11" s="5">
         <v>3000</v>
@@ -15753,10 +15926,10 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C12" s="5">
         <v>5100</v>
@@ -15768,10 +15941,10 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C13" s="5">
         <v>5000</v>
@@ -15779,16 +15952,18 @@
       <c r="D13" s="5">
         <v>2500</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>6000</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C14" s="5">
         <v>5500</v>
@@ -15802,10 +15977,10 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B15" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
@@ -15817,10 +15992,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C16" s="5">
         <v>8800</v>
@@ -15830,7 +16005,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -15905,7 +16080,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="9"/>
@@ -15918,7 +16093,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
         <v>420</v>
@@ -15932,7 +16107,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
         <v>420</v>
